--- a/biology/Zoologie/Conus_pulcher/Conus_pulcher.xlsx
+++ b/biology/Zoologie/Conus_pulcher/Conus_pulcher.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus pulcher est une espèce de gastéropodes de la famille des Conidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il a été décrit par John Lightfoot en 1786.
 Coquille lourde parfois très grande à spire basse en épaulement arrondi. Les côtés peuvent être droits ou légèrement convexes. La base du labre est carrée. L'apex des coquillages âgés est toujours érodé. La couleur et les motifs sont variables, mais c'est en général un coquillage blanc crème avec des bandes orange.
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Afrique occidentale.
 </t>
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Eaux peu profondes.
 </t>
@@ -605,20 +623,22 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Conus archithalassius, Link (1807)[1]
-Conus bicolor, Sowerby II (1833)[1]
-Conus breviculus, Sowerby II (1833)[1]
-Conus fluctifer, Dillwyn (1817)[1]
-Conus grandis, Sowerby I (1823)[1]
-Conus leoninus, Gmelin (1791)[1]
-Conus nicolii, Wilson (1831)[1]
-Conus papilionaceus, Hwass in Bruguière (1792)[1], appellation encore utilisée aujourd'hui
-Conus paulina, Kiener (1850)[1]
-Conus prometheus, Hwass in Bruguière (1792)[1]
-Cucullus achatinus, Röding (1798)[1]
-Cucullus indiae, Röding (1798)[1]</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Conus archithalassius, Link (1807)
+Conus bicolor, Sowerby II (1833)
+Conus breviculus, Sowerby II (1833)
+Conus fluctifer, Dillwyn (1817)
+Conus grandis, Sowerby I (1823)
+Conus leoninus, Gmelin (1791)
+Conus nicolii, Wilson (1831)
+Conus papilionaceus, Hwass in Bruguière (1792), appellation encore utilisée aujourd'hui
+Conus paulina, Kiener (1850)
+Conus prometheus, Hwass in Bruguière (1792)
+Cucullus achatinus, Röding (1798)
+Cucullus indiae, Röding (1798)</t>
         </is>
       </c>
     </row>
@@ -646,7 +666,9 @@
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce coquillage figure sur une émission de l'Angola de 1974 (valeur faciale : 2,50 $).
 </t>
